--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/augustorf_al_insper_edu_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zTodoresto\Insper\Projeto1Cdados\cdados-p1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="619" documentId="8_{FB06C815-B74B-4F78-9056-C49CAB2461DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A217717-1454-47DD-95A7-3464D40C3830}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3062BD41-6354-4024-AAC8-33936212A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="500">
   <si>
     <t>Mensagem</t>
   </si>
@@ -1536,9 +1536,6 @@
   </si>
   <si>
     <t>irrelevante</t>
-  </si>
-  <si>
-    <t>nagativo</t>
   </si>
 </sst>
 </file>
@@ -1620,10 +1617,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1913,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" zoomScale="102" workbookViewId="0">
-      <selection activeCell="J501" sqref="J501"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B412" sqref="B412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="219" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5173,7 +5166,7 @@
         <v>402</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="408" spans="1:2" s="2" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.3">
@@ -5213,7 +5206,7 @@
         <v>407</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="413" spans="1:2" s="2" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.3">
@@ -5925,7 +5918,7 @@
         <v>495</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -5934,23 +5927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="bd61af73-7999-4cce-802c-efc978926a1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBA3F78CEF1CA541A1B93B4F9B0D4715" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="344450343858b62271c4ca773cd9abfb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bd61af73-7999-4cce-802c-efc978926a1d" xmlns:ns4="ee918b65-cae3-47bc-8c3b-c1f3bd6f0a29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5991b61648d92df0e5a79e3195ef7e1e" ns3:_="" ns4:_="">
     <xsd:import namespace="bd61af73-7999-4cce-802c-efc978926a1d"/>
@@ -6127,10 +6103,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bd61af73-7999-4cce-802c-efc978926a1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22FD57E-0E8E-42D4-8C20-8821501F731E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4E8936-9817-49A4-8DA9-5B38C9E89E1B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bd61af73-7999-4cce-802c-efc978926a1d"/>
+    <ds:schemaRef ds:uri="ee918b65-cae3-47bc-8c3b-c1f3bd6f0a29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6153,20 +6157,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF4E8936-9817-49A4-8DA9-5B38C9E89E1B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E22FD57E-0E8E-42D4-8C20-8821501F731E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bd61af73-7999-4cce-802c-efc978926a1d"/>
-    <ds:schemaRef ds:uri="ee918b65-cae3-47bc-8c3b-c1f3bd6f0a29"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>